--- a/Integration/persistance_des_données/dictionnaire_de_données/exercice_1.xlsx
+++ b/Integration/persistance_des_données/dictionnaire_de_données/exercice_1.xlsx
@@ -50,9 +50,6 @@
     <t>longPlage</t>
   </si>
   <si>
-    <t>Longeur de la plage</t>
-  </si>
-  <si>
     <t>natTerrain</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>Prénom du responsable région</t>
   </si>
   <si>
-    <t>codePosVille</t>
-  </si>
-  <si>
     <t>Code Postal de la ville</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>nomRes</t>
   </si>
   <si>
-    <t>nomDepart</t>
-  </si>
-  <si>
     <t>nbTouristes</t>
   </si>
   <si>
@@ -99,6 +90,15 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>Longeur de la plage en km</t>
+  </si>
+  <si>
+    <t>codePostal</t>
+  </si>
+  <si>
+    <t>nomDepartement</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,13 +473,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>5</v>
@@ -487,13 +487,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>10</v>
@@ -504,10 +504,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
         <v>4</v>
@@ -515,10 +515,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -529,10 +529,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -543,10 +543,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -571,10 +571,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
